--- a/database/sidis/expdata/1015affinity01.xlsx
+++ b/database/sidis/expdata/1015affinity01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="25">
   <si>
     <t>Ebeam</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>affinity</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>pi-</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>deuteron</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +517,2216 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>27.6</v>
+      </c>
+      <c r="B2">
+        <v>0.3367617274991435</v>
+      </c>
+      <c r="C2">
+        <v>2.882131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0.1993821</v>
+      </c>
+      <c r="I2">
+        <v>0.002871073</v>
+      </c>
+      <c r="J2">
+        <v>0.003159999</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.06366463</v>
+      </c>
+      <c r="N2">
+        <v>0.1519989</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>0.12</v>
+      </c>
+      <c r="Q2">
+        <v>0.366104812416266</v>
+      </c>
+      <c r="R2">
+        <v>0.8889608</v>
+      </c>
+      <c r="S2">
+        <v>1.1</v>
+      </c>
+      <c r="T2">
+        <v>0.8</v>
+      </c>
+      <c r="U2">
+        <v>0.3371999999999792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>27.6</v>
+      </c>
+      <c r="B3">
+        <v>0.3367617274991435</v>
+      </c>
+      <c r="C3">
+        <v>2.882131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0.2970469</v>
+      </c>
+      <c r="I3">
+        <v>0.002801847</v>
+      </c>
+      <c r="J3">
+        <v>0.005312973</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.05165318</v>
+      </c>
+      <c r="N3">
+        <v>0.1519989</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.12</v>
+      </c>
+      <c r="Q3">
+        <v>0.366104812416266</v>
+      </c>
+      <c r="R3">
+        <v>0.8894068000000001</v>
+      </c>
+      <c r="S3">
+        <v>1.1</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.33019999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C4">
+        <v>5.223411</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.1017679</v>
+      </c>
+      <c r="I4">
+        <v>0.008703974</v>
+      </c>
+      <c r="J4">
+        <v>0.01915921</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.1361795</v>
+      </c>
+      <c r="N4">
+        <v>0.2530129</v>
+      </c>
+      <c r="O4">
+        <v>0.35</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R4">
+        <v>0.5326375</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4">
+        <v>0.475</v>
+      </c>
+      <c r="U4">
+        <v>0.3713999999999754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>27.6</v>
+      </c>
+      <c r="B5">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C5">
+        <v>5.223411</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0.2038081</v>
+      </c>
+      <c r="I5">
+        <v>0.01646889</v>
+      </c>
+      <c r="J5">
+        <v>0.01872444</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>0.2974707</v>
+      </c>
+      <c r="N5">
+        <v>0.2530129</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R5">
+        <v>0.5275946</v>
+      </c>
+      <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="T5">
+        <v>0.475</v>
+      </c>
+      <c r="U5">
+        <v>0.3869999999999737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>27.6</v>
+      </c>
+      <c r="B6">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C6">
+        <v>5.223411</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>261</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0.30189</v>
+      </c>
+      <c r="I6">
+        <v>0.01865178</v>
+      </c>
+      <c r="J6">
+        <v>0.0161327</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.3336514</v>
+      </c>
+      <c r="N6">
+        <v>0.2530129</v>
+      </c>
+      <c r="O6">
+        <v>0.35</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R6">
+        <v>0.5298844</v>
+      </c>
+      <c r="S6">
+        <v>0.6</v>
+      </c>
+      <c r="T6">
+        <v>0.475</v>
+      </c>
+      <c r="U6">
+        <v>0.3539999999999773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>27.6</v>
+      </c>
+      <c r="B7">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C7">
+        <v>5.223411</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.09785178</v>
+      </c>
+      <c r="I7">
+        <v>0.004808104</v>
+      </c>
+      <c r="J7">
+        <v>0.005810397</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.05360111</v>
+      </c>
+      <c r="N7">
+        <v>0.2530129</v>
+      </c>
+      <c r="O7">
+        <v>0.35</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R7">
+        <v>0.6921248</v>
+      </c>
+      <c r="S7">
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.4743999999999641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>27.6</v>
+      </c>
+      <c r="B8">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C8">
+        <v>5.223411</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>267</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.2062039</v>
+      </c>
+      <c r="I8">
+        <v>0.009870317</v>
+      </c>
+      <c r="J8">
+        <v>0.02539517</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>0.1387481</v>
+      </c>
+      <c r="N8">
+        <v>0.2530129</v>
+      </c>
+      <c r="O8">
+        <v>0.35</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R8">
+        <v>0.6843604</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>0.5136999999999597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>27.6</v>
+      </c>
+      <c r="B9">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C9">
+        <v>5.223411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.3021381</v>
+      </c>
+      <c r="I9">
+        <v>0.01135253</v>
+      </c>
+      <c r="J9">
+        <v>0.03742945</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.1474689</v>
+      </c>
+      <c r="N9">
+        <v>0.2530129</v>
+      </c>
+      <c r="O9">
+        <v>0.35</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R9">
+        <v>0.6895474</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.5164999999999594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>27.6</v>
+      </c>
+      <c r="B10">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C10">
+        <v>5.223411</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>269</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.4002593</v>
+      </c>
+      <c r="I10">
+        <v>0.01204837</v>
+      </c>
+      <c r="J10">
+        <v>0.04889136</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.1698826</v>
+      </c>
+      <c r="N10">
+        <v>0.2530129</v>
+      </c>
+      <c r="O10">
+        <v>0.35</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R10">
+        <v>0.6841163</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>0.4694999999999646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>27.6</v>
+      </c>
+      <c r="B11">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C11">
+        <v>5.223411</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0.5207509</v>
+      </c>
+      <c r="I11">
+        <v>0.008291646999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.004087963</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>0.1393939</v>
+      </c>
+      <c r="N11">
+        <v>0.2530129</v>
+      </c>
+      <c r="O11">
+        <v>0.35</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R11">
+        <v>0.6833502</v>
+      </c>
+      <c r="S11">
+        <v>0.8</v>
+      </c>
+      <c r="T11">
+        <v>0.6</v>
+      </c>
+      <c r="U11">
+        <v>0.3257999999999804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>27.6</v>
+      </c>
+      <c r="B12">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C12">
+        <v>5.223411</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0.1013489</v>
+      </c>
+      <c r="I12">
+        <v>0.002132792</v>
+      </c>
+      <c r="J12">
+        <v>0.00213546</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>0.01968692</v>
+      </c>
+      <c r="N12">
+        <v>0.2530129</v>
+      </c>
+      <c r="O12">
+        <v>0.35</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R12">
+        <v>0.8940915</v>
+      </c>
+      <c r="S12">
+        <v>1.1</v>
+      </c>
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>0.593199999999951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>27.6</v>
+      </c>
+      <c r="B13">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C13">
+        <v>5.223411</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0.2012088</v>
+      </c>
+      <c r="I13">
+        <v>0.004641439</v>
+      </c>
+      <c r="J13">
+        <v>0.009391782</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>0.05119003</v>
+      </c>
+      <c r="N13">
+        <v>0.2530129</v>
+      </c>
+      <c r="O13">
+        <v>0.35</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R13">
+        <v>0.8877418</v>
+      </c>
+      <c r="S13">
+        <v>1.1</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0.6579999999999439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>27.6</v>
+      </c>
+      <c r="B14">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C14">
+        <v>5.223411</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0.3002519</v>
+      </c>
+      <c r="I14">
+        <v>0.005329545</v>
+      </c>
+      <c r="J14">
+        <v>0.009450144000000001</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>0.03718989</v>
+      </c>
+      <c r="N14">
+        <v>0.2530129</v>
+      </c>
+      <c r="O14">
+        <v>0.35</v>
+      </c>
+      <c r="P14">
+        <v>0.2</v>
+      </c>
+      <c r="Q14">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R14">
+        <v>0.8871996</v>
+      </c>
+      <c r="S14">
+        <v>1.1</v>
+      </c>
+      <c r="T14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0.684199999999941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>27.6</v>
+      </c>
+      <c r="B15">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C15">
+        <v>5.223411</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>276</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0.3978237</v>
+      </c>
+      <c r="I15">
+        <v>0.005264857</v>
+      </c>
+      <c r="J15">
+        <v>0.01252724</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>0.04355586</v>
+      </c>
+      <c r="N15">
+        <v>0.2530129</v>
+      </c>
+      <c r="O15">
+        <v>0.35</v>
+      </c>
+      <c r="P15">
+        <v>0.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R15">
+        <v>0.8790681</v>
+      </c>
+      <c r="S15">
+        <v>1.1</v>
+      </c>
+      <c r="T15">
+        <v>0.8</v>
+      </c>
+      <c r="U15">
+        <v>0.6602999999999436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>27.6</v>
+      </c>
+      <c r="B16">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C16">
+        <v>5.223411</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>277</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0.5187418</v>
+      </c>
+      <c r="I16">
+        <v>0.003107951</v>
+      </c>
+      <c r="J16">
+        <v>0.0008007598</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>0.03109634</v>
+      </c>
+      <c r="N16">
+        <v>0.2530129</v>
+      </c>
+      <c r="O16">
+        <v>0.35</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R16">
+        <v>0.8823027</v>
+      </c>
+      <c r="S16">
+        <v>1.1</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.5896999999999514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>27.6</v>
+      </c>
+      <c r="B17">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C17">
+        <v>5.223411</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>278</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0.6913203999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002015716</v>
+      </c>
+      <c r="J17">
+        <v>0.0004604791</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>0.0185067</v>
+      </c>
+      <c r="N17">
+        <v>0.2530129</v>
+      </c>
+      <c r="O17">
+        <v>0.35</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R17">
+        <v>0.8594934</v>
+      </c>
+      <c r="S17">
+        <v>1.1</v>
+      </c>
+      <c r="T17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0.3600999999999767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>27.6</v>
+      </c>
+      <c r="B18">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C18">
+        <v>9.205912</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>308</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0.09966816000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04421509</v>
+      </c>
+      <c r="J18">
+        <v>0.04787846</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>0.2502484</v>
+      </c>
+      <c r="N18">
+        <v>0.4090672</v>
+      </c>
+      <c r="O18">
+        <v>0.6</v>
+      </c>
+      <c r="P18">
+        <v>0.35</v>
+      </c>
+      <c r="Q18">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R18">
+        <v>0.4206413</v>
+      </c>
+      <c r="S18">
+        <v>0.475</v>
+      </c>
+      <c r="T18">
+        <v>0.375</v>
+      </c>
+      <c r="U18">
+        <v>0.3601999999999766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>27.6</v>
+      </c>
+      <c r="B19">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C19">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>0.2064214</v>
+      </c>
+      <c r="I19">
+        <v>0.08502131</v>
+      </c>
+      <c r="J19">
+        <v>0.05915142</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>0.5740838</v>
+      </c>
+      <c r="N19">
+        <v>0.4090416</v>
+      </c>
+      <c r="O19">
+        <v>0.6</v>
+      </c>
+      <c r="P19">
+        <v>0.35</v>
+      </c>
+      <c r="Q19">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R19">
+        <v>0.4173804</v>
+      </c>
+      <c r="S19">
+        <v>0.475</v>
+      </c>
+      <c r="T19">
+        <v>0.375</v>
+      </c>
+      <c r="U19">
+        <v>0.3528999999999775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>27.6</v>
+      </c>
+      <c r="B20">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C20">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>315</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>0.1042481</v>
+      </c>
+      <c r="I20">
+        <v>0.03031658</v>
+      </c>
+      <c r="J20">
+        <v>0.01833347</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>0.1295977</v>
+      </c>
+      <c r="N20">
+        <v>0.4090416</v>
+      </c>
+      <c r="O20">
+        <v>0.6</v>
+      </c>
+      <c r="P20">
+        <v>0.35</v>
+      </c>
+      <c r="Q20">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R20">
+        <v>0.5218567</v>
+      </c>
+      <c r="S20">
+        <v>0.6</v>
+      </c>
+      <c r="T20">
+        <v>0.475</v>
+      </c>
+      <c r="U20">
+        <v>0.4282999999999691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>27.6</v>
+      </c>
+      <c r="B21">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C21">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>316</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>0.2053974</v>
+      </c>
+      <c r="I21">
+        <v>0.05784712</v>
+      </c>
+      <c r="J21">
+        <v>0.01928533</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>0.3031542</v>
+      </c>
+      <c r="N21">
+        <v>0.4090416</v>
+      </c>
+      <c r="O21">
+        <v>0.6</v>
+      </c>
+      <c r="P21">
+        <v>0.35</v>
+      </c>
+      <c r="Q21">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R21">
+        <v>0.5276799</v>
+      </c>
+      <c r="S21">
+        <v>0.6</v>
+      </c>
+      <c r="T21">
+        <v>0.475</v>
+      </c>
+      <c r="U21">
+        <v>0.4510999999999666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>27.6</v>
+      </c>
+      <c r="B22">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C22">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>317</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>0.2995284</v>
+      </c>
+      <c r="I22">
+        <v>0.06713416</v>
+      </c>
+      <c r="J22">
+        <v>0.01217868</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>0.2911002</v>
+      </c>
+      <c r="N22">
+        <v>0.4090416</v>
+      </c>
+      <c r="O22">
+        <v>0.6</v>
+      </c>
+      <c r="P22">
+        <v>0.35</v>
+      </c>
+      <c r="Q22">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R22">
+        <v>0.5326319</v>
+      </c>
+      <c r="S22">
+        <v>0.6</v>
+      </c>
+      <c r="T22">
+        <v>0.475</v>
+      </c>
+      <c r="U22">
+        <v>0.4393999999999679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>27.6</v>
+      </c>
+      <c r="B23">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C23">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>318</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0.3954537</v>
+      </c>
+      <c r="I23">
+        <v>0.0777938</v>
+      </c>
+      <c r="J23">
+        <v>0.03505681</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>0.4208812</v>
+      </c>
+      <c r="N23">
+        <v>0.4090416</v>
+      </c>
+      <c r="O23">
+        <v>0.6</v>
+      </c>
+      <c r="P23">
+        <v>0.35</v>
+      </c>
+      <c r="Q23">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R23">
+        <v>0.5328355</v>
+      </c>
+      <c r="S23">
+        <v>0.6</v>
+      </c>
+      <c r="T23">
+        <v>0.475</v>
+      </c>
+      <c r="U23">
+        <v>0.3734999999999752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>27.6</v>
+      </c>
+      <c r="B24">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C24">
+        <v>9.205912</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>322</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>0.1023614</v>
+      </c>
+      <c r="I24">
+        <v>0.01688196</v>
+      </c>
+      <c r="J24">
+        <v>0.005539234</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>0.05099306</v>
+      </c>
+      <c r="N24">
+        <v>0.4090672</v>
+      </c>
+      <c r="O24">
+        <v>0.6</v>
+      </c>
+      <c r="P24">
+        <v>0.35</v>
+      </c>
+      <c r="Q24">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R24">
+        <v>0.6893307</v>
+      </c>
+      <c r="S24">
+        <v>0.8</v>
+      </c>
+      <c r="T24">
+        <v>0.6</v>
+      </c>
+      <c r="U24">
+        <v>0.5488999999999559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>27.6</v>
+      </c>
+      <c r="B25">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C25">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>323</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>0.2058563</v>
+      </c>
+      <c r="I25">
+        <v>0.0338393</v>
+      </c>
+      <c r="J25">
+        <v>0.02494739</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>0.13668</v>
+      </c>
+      <c r="N25">
+        <v>0.4090416</v>
+      </c>
+      <c r="O25">
+        <v>0.6</v>
+      </c>
+      <c r="P25">
+        <v>0.35</v>
+      </c>
+      <c r="Q25">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R25">
+        <v>0.6905665</v>
+      </c>
+      <c r="S25">
+        <v>0.8</v>
+      </c>
+      <c r="T25">
+        <v>0.6</v>
+      </c>
+      <c r="U25">
+        <v>0.5891999999999514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>27.6</v>
+      </c>
+      <c r="B26">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C26">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>0.3015606</v>
+      </c>
+      <c r="I26">
+        <v>0.04370765</v>
+      </c>
+      <c r="J26">
+        <v>0.04752594</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0.1872265</v>
+      </c>
+      <c r="N26">
+        <v>0.4090416</v>
+      </c>
+      <c r="O26">
+        <v>0.6</v>
+      </c>
+      <c r="P26">
+        <v>0.35</v>
+      </c>
+      <c r="Q26">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R26">
+        <v>0.6784033</v>
+      </c>
+      <c r="S26">
+        <v>0.8</v>
+      </c>
+      <c r="T26">
+        <v>0.6</v>
+      </c>
+      <c r="U26">
+        <v>0.5700999999999535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>27.6</v>
+      </c>
+      <c r="B27">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C27">
+        <v>9.205912</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0.3996063</v>
+      </c>
+      <c r="I27">
+        <v>0.03748824</v>
+      </c>
+      <c r="J27">
+        <v>0.01903976</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>0.06627503999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.4090672</v>
+      </c>
+      <c r="O27">
+        <v>0.6</v>
+      </c>
+      <c r="P27">
+        <v>0.35</v>
+      </c>
+      <c r="Q27">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R27">
+        <v>0.6877325</v>
+      </c>
+      <c r="S27">
+        <v>0.8</v>
+      </c>
+      <c r="T27">
+        <v>0.6</v>
+      </c>
+      <c r="U27">
+        <v>0.5481999999999559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>27.6</v>
+      </c>
+      <c r="B28">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C28">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>326</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>0.5195881999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.0256777</v>
+      </c>
+      <c r="J28">
+        <v>0.004079418</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>0.1429</v>
+      </c>
+      <c r="N28">
+        <v>0.4090416</v>
+      </c>
+      <c r="O28">
+        <v>0.6</v>
+      </c>
+      <c r="P28">
+        <v>0.35</v>
+      </c>
+      <c r="Q28">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R28">
+        <v>0.6893705</v>
+      </c>
+      <c r="S28">
+        <v>0.8</v>
+      </c>
+      <c r="T28">
+        <v>0.6</v>
+      </c>
+      <c r="U28">
+        <v>0.474799999999964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>27.6</v>
+      </c>
+      <c r="B29">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C29">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>329</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>0.1169092</v>
+      </c>
+      <c r="I29">
+        <v>0.007466865</v>
+      </c>
+      <c r="J29">
+        <v>0.001804393</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>0.01652661</v>
+      </c>
+      <c r="N29">
+        <v>0.4090416</v>
+      </c>
+      <c r="O29">
+        <v>0.6</v>
+      </c>
+      <c r="P29">
+        <v>0.35</v>
+      </c>
+      <c r="Q29">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R29">
+        <v>0.9123915</v>
+      </c>
+      <c r="S29">
+        <v>1.1</v>
+      </c>
+      <c r="T29">
+        <v>0.8</v>
+      </c>
+      <c r="U29">
+        <v>0.719899999999937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>27.6</v>
+      </c>
+      <c r="B30">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C30">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>330</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>0.2038212</v>
+      </c>
+      <c r="I30">
+        <v>0.0135717</v>
+      </c>
+      <c r="J30">
+        <v>0.004632515</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>0.02518022</v>
+      </c>
+      <c r="N30">
+        <v>0.4090416</v>
+      </c>
+      <c r="O30">
+        <v>0.6</v>
+      </c>
+      <c r="P30">
+        <v>0.35</v>
+      </c>
+      <c r="Q30">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R30">
+        <v>0.8886453</v>
+      </c>
+      <c r="S30">
+        <v>1.1</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>0.7327999999999356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>27.6</v>
+      </c>
+      <c r="B31">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C31">
+        <v>9.205912</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>331</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>0.2983058</v>
+      </c>
+      <c r="I31">
+        <v>0.01822849</v>
+      </c>
+      <c r="J31">
+        <v>0.01277117</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>0.05024746</v>
+      </c>
+      <c r="N31">
+        <v>0.4090672</v>
+      </c>
+      <c r="O31">
+        <v>0.6</v>
+      </c>
+      <c r="P31">
+        <v>0.35</v>
+      </c>
+      <c r="Q31">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R31">
+        <v>0.8864427</v>
+      </c>
+      <c r="S31">
+        <v>1.1</v>
+      </c>
+      <c r="T31">
+        <v>0.8</v>
+      </c>
+      <c r="U31">
+        <v>0.7547999999999332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>27.6</v>
+      </c>
+      <c r="B32">
+        <v>0.160998432419972</v>
+      </c>
+      <c r="C32">
+        <v>9.206077000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>332</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>0.404213</v>
+      </c>
+      <c r="I32">
+        <v>0.02253846</v>
+      </c>
+      <c r="J32">
+        <v>0.000482237</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>0.01567496</v>
+      </c>
+      <c r="N32">
+        <v>0.4092912</v>
+      </c>
+      <c r="O32">
+        <v>0.6</v>
+      </c>
+      <c r="P32">
+        <v>0.35</v>
+      </c>
+      <c r="Q32">
+        <v>0.43428453259381</v>
+      </c>
+      <c r="R32">
+        <v>0.8604216</v>
+      </c>
+      <c r="S32">
+        <v>1.1</v>
+      </c>
+      <c r="T32">
+        <v>0.8</v>
+      </c>
+      <c r="U32">
+        <v>0.7189999999999371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>27.6</v>
+      </c>
+      <c r="B33">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C33">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>0.525062</v>
+      </c>
+      <c r="I33">
+        <v>0.01136554</v>
+      </c>
+      <c r="J33">
+        <v>0.002251455</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>0.04265636</v>
+      </c>
+      <c r="N33">
+        <v>0.4090416</v>
+      </c>
+      <c r="O33">
+        <v>0.6</v>
+      </c>
+      <c r="P33">
+        <v>0.35</v>
+      </c>
+      <c r="Q33">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R33">
+        <v>0.8799911</v>
+      </c>
+      <c r="S33">
+        <v>1.1</v>
+      </c>
+      <c r="T33">
+        <v>0.8</v>
+      </c>
+      <c r="U33">
+        <v>0.702399999999939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>27.6</v>
+      </c>
+      <c r="B34">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C34">
+        <v>9.205912</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>334</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>0.6909838</v>
+      </c>
+      <c r="I34">
+        <v>0.008020551000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.001204679</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>0.02124114</v>
+      </c>
+      <c r="N34">
+        <v>0.4090672</v>
+      </c>
+      <c r="O34">
+        <v>0.6</v>
+      </c>
+      <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R34">
+        <v>0.8690088</v>
+      </c>
+      <c r="S34">
+        <v>1.1</v>
+      </c>
+      <c r="T34">
+        <v>0.8</v>
+      </c>
+      <c r="U34">
+        <v>0.5645999999999541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>27.6</v>
+      </c>
+      <c r="B35">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C35">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>0.8928465</v>
+      </c>
+      <c r="I35">
+        <v>0.002309472</v>
+      </c>
+      <c r="J35">
+        <v>0.0003317465</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>0.005867724</v>
+      </c>
+      <c r="N35">
+        <v>0.4090416</v>
+      </c>
+      <c r="O35">
+        <v>0.6</v>
+      </c>
+      <c r="P35">
+        <v>0.35</v>
+      </c>
+      <c r="Q35">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R35">
+        <v>0.8559905</v>
+      </c>
+      <c r="S35">
+        <v>1.1</v>
+      </c>
+      <c r="T35">
+        <v>0.8</v>
+      </c>
+      <c r="U35">
+        <v>0.3128999999999819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
